--- a/test_output.xlsx
+++ b/test_output.xlsx
@@ -505,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,6 +727,72 @@
       <c r="W2" s="4" t="inlineStr"/>
       <c r="X2" s="6" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" s="7" t="n">
+        <v>45933</v>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>CX1</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Test Driver</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>BW1</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>BW1</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>VIN001</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>GT001</t>
+        </is>
+      </c>
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>Branded</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="inlineStr">
+        <is>
+          <t>Large</t>
+        </is>
+      </c>
+      <c r="J3" s="4" t="inlineStr"/>
+      <c r="K3" s="3" t="inlineStr"/>
+      <c r="L3" s="3" t="inlineStr"/>
+      <c r="M3" s="3" t="inlineStr"/>
+      <c r="N3" s="3" t="inlineStr"/>
+      <c r="O3" s="3" t="inlineStr"/>
+      <c r="P3" s="3" t="inlineStr"/>
+      <c r="Q3" s="4" t="inlineStr"/>
+      <c r="R3" s="4" t="inlineStr"/>
+      <c r="S3" s="4" t="inlineStr"/>
+      <c r="T3" s="4" t="inlineStr"/>
+      <c r="U3" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="V3" s="4" t="inlineStr">
+        <is>
+          <t>10/03/2025|CX1|BW1|BW1</t>
+        </is>
+      </c>
+      <c r="W3" s="4" t="inlineStr"/>
+      <c r="X3" s="6" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
